--- a/biology/Médecine/Équipe_opérationnelle_d'hygiène/Équipe_opérationnelle_d'hygiène.xlsx
+++ b/biology/Médecine/Équipe_opérationnelle_d'hygiène/Équipe_opérationnelle_d'hygiène.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89quipe_op%C3%A9rationnelle_d%27hygi%C3%A8ne</t>
+          <t>Équipe_opérationnelle_d'hygiène</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une équipe opérationnelle d'hygiène hospitalière (EOH) associe dans l'idéal un médecin ou un pharmacien et un personnel infirmier. Le rôle de cette équipe est la prévention, la formation et l'information du personnel, l'expertise et l'évaluation concernant les risques infectieux.
 </t>
